--- a/Java/Test OptRecursive/OptRecursive_Testbench/Excel_Files/outputOpt/Y.xlsx
+++ b/Java/Test OptRecursive/OptRecursive_Testbench/Excel_Files/outputOpt/Y.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>189.0</v>
+        <v>398.0</v>
       </c>
     </row>
   </sheetData>
